--- a/整理/全台潛店/潛店(地區).xlsx
+++ b/整理/全台潛店/潛店(地區).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\12_潛店\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nkust\team_project2_專題匯集資料\整理\全台潛店\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8036C1-F5F5-404C-A49D-F2A4CB69BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08DD803-64B8-4FE4-BF28-E5B04C9E63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBD4DC7B-9773-477A-93D1-E2EE994E5934}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBD4DC7B-9773-477A-93D1-E2EE994E5934}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="674">
   <si>
     <t>地區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1763,9 +1763,6 @@
     <t>洋Free diving-高雄自由潛水 / 小琉球 / 墾丁</t>
   </si>
   <si>
-    <t>日旺浮潛 Ri wang diving</t>
-  </si>
-  <si>
     <t>琉影潛水</t>
   </si>
   <si>
@@ -1922,9 +1919,6 @@
     <t>小琉球 愛潛水</t>
   </si>
   <si>
-    <t>929屏東縣琉球鄉忠孝路一巷2-6號</t>
-  </si>
-  <si>
     <t>929屏東縣琉球鄉環島公路</t>
   </si>
   <si>
@@ -1935,9 +1929,6 @@
   </si>
   <si>
     <t>929屏東縣琉球鄉信義路11-1號</t>
-  </si>
-  <si>
-    <t>929屏東縣琉球鄉</t>
   </si>
   <si>
     <t>929屏東縣琉球鄉中正路1巷90-2號</t>
@@ -2477,21 +2468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1F45BB-E954-4BED-A2EB-7EF9644628F1}">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2519,7 @@
         <v>120.66289999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2536,7 @@
         <v>120.66597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2553,7 @@
         <v>120.67700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2570,7 @@
         <v>120.68411</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2587,7 @@
         <v>120.62097</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2604,7 @@
         <v>120.68434999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2621,7 @@
         <v>120.99113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2638,7 @@
         <v>121.01062</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +2655,7 @@
         <v>120.96713</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2681,7 +2672,7 @@
         <v>121.2951032</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2698,7 +2689,7 @@
         <v>121.36564970000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2715,7 +2706,7 @@
         <v>121.297798</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2732,7 +2723,7 @@
         <v>121.309471</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2749,7 +2740,7 @@
         <v>121.2565993</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2766,7 +2757,7 @@
         <v>121.2909633</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2783,7 +2774,7 @@
         <v>121.29343280000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>121.23795029999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2817,7 +2808,7 @@
         <v>121.92402079999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -2834,7 +2825,7 @@
         <v>121.83792080000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2851,7 +2842,7 @@
         <v>121.87892050000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2868,7 +2859,7 @@
         <v>121.76693589999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2885,7 +2876,7 @@
         <v>121.79232810000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2902,7 +2893,7 @@
         <v>121.79389449999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2919,7 +2910,7 @@
         <v>121.79708789999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -2936,7 +2927,7 @@
         <v>121.79811789999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -2953,7 +2944,7 @@
         <v>121.9237502</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -2970,7 +2961,7 @@
         <v>121.6631848</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -2987,7 +2978,7 @@
         <v>121.91667987120999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
@@ -3004,7 +2995,7 @@
         <v>121.5845202</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -3021,7 +3012,7 @@
         <v>121.5656797</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -3038,7 +3029,7 @@
         <v>121.5339093</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -3055,7 +3046,7 @@
         <v>121.50613749999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -3072,7 +3063,7 @@
         <v>121.47478599999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3080,7 @@
         <v>121.46849159999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3106,7 +3097,7 @@
         <v>121.4652985</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -3123,7 +3114,7 @@
         <v>121.4922064</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3140,7 +3131,7 @@
         <v>121.5028494</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -3157,7 +3148,7 @@
         <v>121.9155849</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3174,7 +3165,7 @@
         <v>121.9211979</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3191,7 +3182,7 @@
         <v>121.5030189</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>121.5373512</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>121.3634028</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>98</v>
       </c>
@@ -3242,7 +3233,7 @@
         <v>121.5436792</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -3259,7 +3250,7 @@
         <v>121.5255641</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -3276,7 +3267,7 @@
         <v>121.5419232</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -3293,7 +3284,7 @@
         <v>121.595107</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3301,7 @@
         <v>121.56223799999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
@@ -3327,7 +3318,7 @@
         <v>121.6009852</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>110</v>
       </c>
@@ -3344,7 +3335,7 @@
         <v>121.5094543</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
@@ -3361,7 +3352,7 @@
         <v>121.6036568</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
@@ -3378,7 +3369,7 @@
         <v>121.61755599999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
@@ -3395,7 +3386,7 @@
         <v>121.3035186</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>119</v>
       </c>
@@ -3412,7 +3403,7 @@
         <v>121.4743589</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>120</v>
       </c>
@@ -3429,7 +3420,7 @@
         <v>121.4774551</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>121</v>
       </c>
@@ -3446,7 +3437,7 @@
         <v>121.4727135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>122</v>
       </c>
@@ -3463,7 +3454,7 @@
         <v>121.4835819</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -3480,7 +3471,7 @@
         <v>121.46820270000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -3497,7 +3488,7 @@
         <v>121.4873417</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
@@ -3514,7 +3505,7 @@
         <v>121.4853451</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
@@ -3531,7 +3522,7 @@
         <v>121.471146235635</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
@@ -3548,7 +3539,7 @@
         <v>121.486206586276</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>533</v>
       </c>
@@ -3565,7 +3556,7 @@
         <v>121.471362559949</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
@@ -3582,7 +3573,7 @@
         <v>121.47345368502801</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -3599,7 +3590,7 @@
         <v>121.4753426</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -3616,7 +3607,7 @@
         <v>121.47832649999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -3633,7 +3624,7 @@
         <v>121.479176</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
@@ -3650,7 +3641,7 @@
         <v>121.4744721</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
@@ -3667,7 +3658,7 @@
         <v>121.4875775</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
@@ -3684,7 +3675,7 @@
         <v>121.4716207</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
@@ -3701,7 +3692,7 @@
         <v>121.47261109999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>121.4755933</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>156</v>
       </c>
@@ -3735,7 +3726,7 @@
         <v>121.4731656</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>157</v>
       </c>
@@ -3752,7 +3743,7 @@
         <v>121.4734194</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -3769,7 +3760,7 @@
         <v>121.4750758</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>159</v>
       </c>
@@ -3786,7 +3777,7 @@
         <v>121.47021119999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -3803,7 +3794,7 @@
         <v>121.47538849999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
@@ -3820,7 +3811,7 @@
         <v>121.47176380000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>162</v>
       </c>
@@ -3837,7 +3828,7 @@
         <v>121.4752099</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>163</v>
       </c>
@@ -3854,7 +3845,7 @@
         <v>121.4861092</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -3871,7 +3862,7 @@
         <v>121.48928549999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
@@ -3888,7 +3879,7 @@
         <v>121.4675795</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>166</v>
       </c>
@@ -3905,7 +3896,7 @@
         <v>121.4746542</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
@@ -3922,7 +3913,7 @@
         <v>121.4746683</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -3939,7 +3930,7 @@
         <v>121.48885540000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
@@ -3956,7 +3947,7 @@
         <v>121.4903798</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
@@ -3973,7 +3964,7 @@
         <v>121.4744906</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>171</v>
       </c>
@@ -3990,7 +3981,7 @@
         <v>121.49881000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +3998,7 @@
         <v>121.4752009</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>173</v>
       </c>
@@ -4024,7 +4015,7 @@
         <v>121.4732324</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>174</v>
       </c>
@@ -4041,7 +4032,7 @@
         <v>121.4715971</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>175</v>
       </c>
@@ -4058,7 +4049,7 @@
         <v>121.4743447</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>176</v>
       </c>
@@ -4075,7 +4066,7 @@
         <v>121.47128499999999</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>177</v>
       </c>
@@ -4092,7 +4083,7 @@
         <v>121.4752591</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>178</v>
       </c>
@@ -4109,7 +4100,7 @@
         <v>121.4805882</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>179</v>
       </c>
@@ -4126,7 +4117,7 @@
         <v>121.472694</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>180</v>
       </c>
@@ -4143,7 +4134,7 @@
         <v>121.4909621</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>181</v>
       </c>
@@ -4160,7 +4151,7 @@
         <v>121.4905545</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>182</v>
       </c>
@@ -4177,7 +4168,7 @@
         <v>121.4755155</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>183</v>
       </c>
@@ -4194,7 +4185,7 @@
         <v>121.4749565</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>184</v>
       </c>
@@ -4211,7 +4202,7 @@
         <v>121.4709618</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>185</v>
       </c>
@@ -4228,7 +4219,7 @@
         <v>121.4792236</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>186</v>
       </c>
@@ -4245,7 +4236,7 @@
         <v>121.49020520000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>187</v>
       </c>
@@ -4262,7 +4253,7 @@
         <v>121.4755061</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>188</v>
       </c>
@@ -4279,7 +4270,7 @@
         <v>121.4702286</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>189</v>
       </c>
@@ -4296,7 +4287,7 @@
         <v>121.4884079</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>190</v>
       </c>
@@ -4313,7 +4304,7 @@
         <v>121.47606709999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>191</v>
       </c>
@@ -4330,7 +4321,7 @@
         <v>121.4696905</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>192</v>
       </c>
@@ -4347,7 +4338,7 @@
         <v>121.47182100000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>193</v>
       </c>
@@ -4364,7 +4355,7 @@
         <v>121.49255100000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>194</v>
       </c>
@@ -4381,7 +4372,7 @@
         <v>121.49179119999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>195</v>
       </c>
@@ -4398,7 +4389,7 @@
         <v>121.49266919999999</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>196</v>
       </c>
@@ -4415,7 +4406,7 @@
         <v>121.46826040000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>197</v>
       </c>
@@ -4432,7 +4423,7 @@
         <v>121.4917939</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>198</v>
       </c>
@@ -4449,7 +4440,7 @@
         <v>121.4983325</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
@@ -4466,7 +4457,7 @@
         <v>121.4920394</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>200</v>
       </c>
@@ -4483,7 +4474,7 @@
         <v>121.4760167</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>201</v>
       </c>
@@ -4500,7 +4491,7 @@
         <v>121.4733911</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>202</v>
       </c>
@@ -4517,7 +4508,7 @@
         <v>121.4802856</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>251</v>
       </c>
@@ -4534,7 +4525,7 @@
         <v>121.55508089999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>252</v>
       </c>
@@ -4551,7 +4542,7 @@
         <v>121.55859150000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>282</v>
       </c>
@@ -4568,7 +4559,7 @@
         <v>121.56596260000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>253</v>
       </c>
@@ -4585,7 +4576,7 @@
         <v>121.56040950000001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>254</v>
       </c>
@@ -4602,7 +4593,7 @@
         <v>121.5252715</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>255</v>
       </c>
@@ -4619,7 +4610,7 @@
         <v>121.5291356</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>256</v>
       </c>
@@ -4636,7 +4627,7 @@
         <v>121.5411409</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>257</v>
       </c>
@@ -4653,7 +4644,7 @@
         <v>121.5589696</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>258</v>
       </c>
@@ -4670,7 +4661,7 @@
         <v>121.56545610000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>259</v>
       </c>
@@ -4687,7 +4678,7 @@
         <v>121.52912910000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -4704,7 +4695,7 @@
         <v>121.56695550000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>261</v>
       </c>
@@ -4721,7 +4712,7 @@
         <v>121.51265359999999</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -4738,7 +4729,7 @@
         <v>121.56687479999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>263</v>
       </c>
@@ -4755,7 +4746,7 @@
         <v>121.5252279</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>264</v>
       </c>
@@ -4772,7 +4763,7 @@
         <v>121.5671146</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>155</v>
       </c>
@@ -4789,7 +4780,7 @@
         <v>121.4755906</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>265</v>
       </c>
@@ -4806,7 +4797,7 @@
         <v>121.56745100000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>266</v>
       </c>
@@ -4823,7 +4814,7 @@
         <v>121.56627279999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>126</v>
       </c>
@@ -4840,7 +4831,7 @@
         <v>121.50957080000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>286</v>
       </c>
@@ -4857,7 +4848,7 @@
         <v>120.4249911</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>287</v>
       </c>
@@ -4874,7 +4865,7 @@
         <v>120.46612930000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>291</v>
       </c>
@@ -4891,7 +4882,7 @@
         <v>120.2018985</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>292</v>
       </c>
@@ -4908,7 +4899,7 @@
         <v>120.20821599999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>293</v>
       </c>
@@ -4925,7 +4916,7 @@
         <v>120.25493040000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>294</v>
       </c>
@@ -4942,7 +4933,7 @@
         <v>120.2496608</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>295</v>
       </c>
@@ -4959,7 +4950,7 @@
         <v>120.227434</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>296</v>
       </c>
@@ -4976,7 +4967,7 @@
         <v>120.19548570000001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>304</v>
       </c>
@@ -4993,7 +4984,7 @@
         <v>120.2632078</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>305</v>
       </c>
@@ -5010,7 +5001,7 @@
         <v>120.3333727</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>306</v>
       </c>
@@ -5027,7 +5018,7 @@
         <v>120.2899092</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>307</v>
       </c>
@@ -5044,7 +5035,7 @@
         <v>120.3031032</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>308</v>
       </c>
@@ -5061,7 +5052,7 @@
         <v>120.3230002</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>309</v>
       </c>
@@ -5078,7 +5069,7 @@
         <v>120.320301</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>310</v>
       </c>
@@ -5095,7 +5086,7 @@
         <v>120.3388769</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>311</v>
       </c>
@@ -5112,7 +5103,7 @@
         <v>120.34231800000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>312</v>
       </c>
@@ -5129,7 +5120,7 @@
         <v>120.3421548</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>313</v>
       </c>
@@ -5146,7 +5137,7 @@
         <v>120.3361147</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -5163,7 +5154,7 @@
         <v>120.3109683</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>315</v>
       </c>
@@ -5180,7 +5171,7 @@
         <v>120.30956930000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>316</v>
       </c>
@@ -5197,7 +5188,7 @@
         <v>120.3009903</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>317</v>
       </c>
@@ -5214,7 +5205,7 @@
         <v>120.31632810000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>318</v>
       </c>
@@ -5231,7 +5222,7 @@
         <v>120.3221532</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>319</v>
       </c>
@@ -5248,7 +5239,7 @@
         <v>120.3563821</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>320</v>
       </c>
@@ -5265,7 +5256,7 @@
         <v>120.3923303</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>321</v>
       </c>
@@ -5282,7 +5273,7 @@
         <v>120.3607688</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>341</v>
       </c>
@@ -5299,7 +5290,7 @@
         <v>120.4522516</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>342</v>
       </c>
@@ -5316,7 +5307,7 @@
         <v>120.74750090000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>343</v>
       </c>
@@ -5333,7 +5324,7 @@
         <v>120.7267811</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>344</v>
       </c>
@@ -5350,7 +5341,7 @@
         <v>120.6980411</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>345</v>
       </c>
@@ -5367,7 +5358,7 @@
         <v>120.6944154</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>346</v>
       </c>
@@ -5384,7 +5375,7 @@
         <v>120.7154093</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>347</v>
       </c>
@@ -5401,7 +5392,7 @@
         <v>120.73720040000001</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>348</v>
       </c>
@@ -5418,7 +5409,7 @@
         <v>120.74392709999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>349</v>
       </c>
@@ -5435,7 +5426,7 @@
         <v>120.7384539</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>350</v>
       </c>
@@ -5452,7 +5443,7 @@
         <v>120.72584519999999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>351</v>
       </c>
@@ -5469,7 +5460,7 @@
         <v>120.72761389999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>352</v>
       </c>
@@ -5486,7 +5477,7 @@
         <v>120.73519810000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>353</v>
       </c>
@@ -5503,7 +5494,7 @@
         <v>120.7404355</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>354</v>
       </c>
@@ -5520,7 +5511,7 @@
         <v>120.7403649</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>355</v>
       </c>
@@ -5537,7 +5528,7 @@
         <v>120.7425523</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>356</v>
       </c>
@@ -5554,7 +5545,7 @@
         <v>120.74256440000001</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>357</v>
       </c>
@@ -5571,7 +5562,7 @@
         <v>120.7424046</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>358</v>
       </c>
@@ -5588,7 +5579,7 @@
         <v>120.7445134</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>359</v>
       </c>
@@ -5605,7 +5596,7 @@
         <v>120.74924540000001</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>360</v>
       </c>
@@ -5622,7 +5613,7 @@
         <v>120.75019639999999</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>361</v>
       </c>
@@ -5639,7 +5630,7 @@
         <v>120.7461876</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>362</v>
       </c>
@@ -5656,7 +5647,7 @@
         <v>120.74507029999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>363</v>
       </c>
@@ -5673,7 +5664,7 @@
         <v>120.7430348</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>364</v>
       </c>
@@ -5690,7 +5681,7 @@
         <v>120.74274990000001</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>365</v>
       </c>
@@ -5707,7 +5698,7 @@
         <v>120.7493381</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>366</v>
       </c>
@@ -5724,7 +5715,7 @@
         <v>120.74805739999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>367</v>
       </c>
@@ -5741,7 +5732,7 @@
         <v>120.7480542</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>368</v>
       </c>
@@ -5758,7 +5749,7 @@
         <v>120.7515993</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>369</v>
       </c>
@@ -5775,7 +5766,7 @@
         <v>120.7467812</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>370</v>
       </c>
@@ -5792,7 +5783,7 @@
         <v>120.74420259999999</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>371</v>
       </c>
@@ -5809,7 +5800,7 @@
         <v>120.7410314</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>372</v>
       </c>
@@ -5826,7 +5817,7 @@
         <v>120.7400964</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>373</v>
       </c>
@@ -5843,7 +5834,7 @@
         <v>120.74227879999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>374</v>
       </c>
@@ -5860,7 +5851,7 @@
         <v>120.7413861</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>375</v>
       </c>
@@ -5877,7 +5868,7 @@
         <v>120.7445199</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>376</v>
       </c>
@@ -5894,7 +5885,7 @@
         <v>120.7459094</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>377</v>
       </c>
@@ -5911,7 +5902,7 @@
         <v>120.75391190000001</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>378</v>
       </c>
@@ -5928,7 +5919,7 @@
         <v>120.7465153</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>379</v>
       </c>
@@ -5945,7 +5936,7 @@
         <v>120.7431783</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>380</v>
       </c>
@@ -5962,7 +5953,7 @@
         <v>120.7446956</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>381</v>
       </c>
@@ -5979,7 +5970,7 @@
         <v>120.7436974</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>382</v>
       </c>
@@ -5996,7 +5987,7 @@
         <v>120.7446868</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>383</v>
       </c>
@@ -6013,7 +6004,7 @@
         <v>120.7468114</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>384</v>
       </c>
@@ -6030,7 +6021,7 @@
         <v>120.7482602</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>351</v>
       </c>
@@ -6047,7 +6038,7 @@
         <v>120.7276212</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>385</v>
       </c>
@@ -6064,7 +6055,7 @@
         <v>120.73102660000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>386</v>
       </c>
@@ -6081,7 +6072,7 @@
         <v>120.7322611</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>387</v>
       </c>
@@ -6098,7 +6089,7 @@
         <v>120.7330729</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>388</v>
       </c>
@@ -6115,7 +6106,7 @@
         <v>120.7470005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>389</v>
       </c>
@@ -6132,7 +6123,7 @@
         <v>120.7370634</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>390</v>
       </c>
@@ -6149,7 +6140,7 @@
         <v>120.7308161</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>391</v>
       </c>
@@ -6166,7 +6157,7 @@
         <v>120.7054134</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>392</v>
       </c>
@@ -6183,7 +6174,7 @@
         <v>120.70488709999999</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>393</v>
       </c>
@@ -6200,7 +6191,7 @@
         <v>120.7067502</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>394</v>
       </c>
@@ -6217,7 +6208,7 @@
         <v>120.7136481</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>395</v>
       </c>
@@ -6234,7 +6225,7 @@
         <v>120.72894479999999</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>396</v>
       </c>
@@ -6251,7 +6242,7 @@
         <v>120.72904389999999</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>397</v>
       </c>
@@ -6268,7 +6259,7 @@
         <v>120.7315014</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>398</v>
       </c>
@@ -6285,7 +6276,7 @@
         <v>120.73307339999999</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>399</v>
       </c>
@@ -6302,7 +6293,7 @@
         <v>120.7292435</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>400</v>
       </c>
@@ -6319,7 +6310,7 @@
         <v>120.7220299</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>401</v>
       </c>
@@ -6336,7 +6327,7 @@
         <v>120.7220938</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>402</v>
       </c>
@@ -6353,7 +6344,7 @@
         <v>120.73951289999999</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>403</v>
       </c>
@@ -6370,7 +6361,7 @@
         <v>120.7381062</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>404</v>
       </c>
@@ -6387,7 +6378,7 @@
         <v>120.7380132</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>405</v>
       </c>
@@ -6404,7 +6395,7 @@
         <v>120.7374906</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>406</v>
       </c>
@@ -6421,7 +6412,7 @@
         <v>120.7412669</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>407</v>
       </c>
@@ -6438,7 +6429,7 @@
         <v>120.7399679</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>408</v>
       </c>
@@ -6455,7 +6446,7 @@
         <v>120.7384498</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>409</v>
       </c>
@@ -6472,7 +6463,7 @@
         <v>120.7388112</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>410</v>
       </c>
@@ -6489,7 +6480,7 @@
         <v>120.73904659999999</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>411</v>
       </c>
@@ -6506,7 +6497,7 @@
         <v>120.7404743</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>412</v>
       </c>
@@ -6523,7 +6514,7 @@
         <v>120.7399746</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>413</v>
       </c>
@@ -6540,7 +6531,7 @@
         <v>120.7410326</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>414</v>
       </c>
@@ -6557,7 +6548,7 @@
         <v>120.73978820000001</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>415</v>
       </c>
@@ -6574,7 +6565,7 @@
         <v>120.73407950000001</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>416</v>
       </c>
@@ -6591,7 +6582,7 @@
         <v>120.7388954</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>417</v>
       </c>
@@ -6608,7 +6599,7 @@
         <v>120.7395381</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>418</v>
       </c>
@@ -6625,7 +6616,7 @@
         <v>120.7424439</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>419</v>
       </c>
@@ -6642,7 +6633,7 @@
         <v>120.7425617</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>420</v>
       </c>
@@ -6659,7 +6650,7 @@
         <v>120.74283440000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>421</v>
       </c>
@@ -6676,7 +6667,7 @@
         <v>120.7428546</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>422</v>
       </c>
@@ -6693,7 +6684,7 @@
         <v>120.73635950000001</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>423</v>
       </c>
@@ -6710,7 +6701,7 @@
         <v>120.7371167</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>424</v>
       </c>
@@ -6727,7 +6718,7 @@
         <v>120.73515329999999</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>425</v>
       </c>
@@ -6744,7 +6735,7 @@
         <v>120.7335715</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>426</v>
       </c>
@@ -6761,7 +6752,7 @@
         <v>120.73450339999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>427</v>
       </c>
@@ -6778,7 +6769,7 @@
         <v>120.7316745</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>428</v>
       </c>
@@ -6795,7 +6786,7 @@
         <v>120.7309783</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>429</v>
       </c>
@@ -6812,7 +6803,7 @@
         <v>120.7331563</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>430</v>
       </c>
@@ -6829,7 +6820,7 @@
         <v>120.7321924</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>431</v>
       </c>
@@ -6846,7 +6837,7 @@
         <v>120.7327842</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>432</v>
       </c>
@@ -6863,7 +6854,7 @@
         <v>120.7431704</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>433</v>
       </c>
@@ -6880,7 +6871,7 @@
         <v>120.7979983</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>434</v>
       </c>
@@ -6897,7 +6888,7 @@
         <v>120.82261250000001</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>534</v>
       </c>
@@ -6914,7 +6905,7 @@
         <v>119.5054569</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>535</v>
       </c>
@@ -6931,7 +6922,7 @@
         <v>119.55414210000001</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>536</v>
       </c>
@@ -6948,7 +6939,7 @@
         <v>119.5679892</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>537</v>
       </c>
@@ -6965,7 +6956,7 @@
         <v>119.57197619999999</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>538</v>
       </c>
@@ -6982,7 +6973,7 @@
         <v>119.59282330000001</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>539</v>
       </c>
@@ -6999,7 +6990,7 @@
         <v>119.5927095</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>540</v>
       </c>
@@ -7016,7 +7007,7 @@
         <v>119.59632569999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>541</v>
       </c>
@@ -7033,7 +7024,7 @@
         <v>119.5968405</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>542</v>
       </c>
@@ -7050,7 +7041,7 @@
         <v>119.6023905</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>543</v>
       </c>
@@ -7067,7 +7058,7 @@
         <v>119.6177301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>544</v>
       </c>
@@ -7084,7 +7075,7 @@
         <v>119.6351461</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>545</v>
       </c>
@@ -7101,15 +7092,15 @@
         <v>119.568845</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>559</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D272" s="2">
         <v>22.324953069999999</v>
@@ -7118,15 +7109,15 @@
         <v>120.3644877</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>560</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D273" s="2">
         <v>22.328647060000002</v>
@@ -7135,15 +7126,15 @@
         <v>120.35456379999999</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>561</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D274" s="2">
         <v>22.32786016</v>
@@ -7152,15 +7143,15 @@
         <v>120.3576314</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D275" s="2">
         <v>22.328738430000001</v>
@@ -7169,15 +7160,15 @@
         <v>120.35757599999999</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>563</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D276" s="2">
         <v>22.328721680000001</v>
@@ -7186,921 +7177,887 @@
         <v>120.35761290000001</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>564</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D277" s="2">
-        <v>22.330602379999998</v>
+        <v>22.330497560000001</v>
       </c>
       <c r="E277" s="2">
-        <v>120.3585324</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120.3586706</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>565</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D278" s="2">
+        <v>22.329075759999998</v>
+      </c>
+      <c r="E278" s="2">
+        <v>120.3639312</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D279" s="2">
+        <v>22.329308990000001</v>
+      </c>
+      <c r="E279" s="2">
+        <v>120.3641583</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D278" s="2">
-        <v>22.330497560000001</v>
-      </c>
-      <c r="E278" s="2">
-        <v>120.3586706</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D279" s="2">
-        <v>22.324952190000001</v>
-      </c>
-      <c r="E279" s="2">
-        <v>120.36449260000001</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C280" s="2" t="s">
+      <c r="D280" s="2">
+        <v>22.33111529</v>
+      </c>
+      <c r="E280" s="2">
+        <v>120.36275120000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D280" s="2">
-        <v>22.329075759999998</v>
-      </c>
-      <c r="E280" s="2">
-        <v>120.3639312</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C281" s="2" t="s">
+      <c r="D281" s="2">
+        <v>22.333125590000002</v>
+      </c>
+      <c r="E281" s="2">
+        <v>120.3628047</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D281" s="2">
-        <v>22.329308990000001</v>
-      </c>
-      <c r="E281" s="2">
-        <v>120.3641583</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C282" s="2" t="s">
+      <c r="D282" s="2">
+        <v>22.333543859999999</v>
+      </c>
+      <c r="E282" s="2">
+        <v>120.3724048</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D282" s="2">
-        <v>22.33111529</v>
-      </c>
-      <c r="E282" s="2">
-        <v>120.36275120000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C283" s="2" t="s">
+      <c r="D283" s="2">
+        <v>22.33393083</v>
+      </c>
+      <c r="E283" s="2">
+        <v>120.3725755</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D283" s="2">
-        <v>22.333125590000002</v>
-      </c>
-      <c r="E283" s="2">
-        <v>120.3628047</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C284" s="2" t="s">
+      <c r="D284" s="2">
+        <v>22.334768329999999</v>
+      </c>
+      <c r="E284" s="2">
+        <v>120.3718092</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D284" s="2">
-        <v>22.333543859999999</v>
-      </c>
-      <c r="E284" s="2">
-        <v>120.3724048</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C285" s="2" t="s">
+      <c r="D285" s="2">
+        <v>22.335297600000001</v>
+      </c>
+      <c r="E285" s="2">
+        <v>120.37140119999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D285" s="2">
-        <v>22.33393083</v>
-      </c>
-      <c r="E285" s="2">
-        <v>120.3725755</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C286" s="2" t="s">
+      <c r="D286" s="2">
+        <v>22.335960289999999</v>
+      </c>
+      <c r="E286" s="2">
+        <v>120.3713078</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D286" s="2">
-        <v>22.334768329999999</v>
-      </c>
-      <c r="E286" s="2">
-        <v>120.3718092</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C287" s="2" t="s">
+      <c r="D287" s="2">
+        <v>22.337524940000002</v>
+      </c>
+      <c r="E287" s="2">
+        <v>120.3673792</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D287" s="2">
-        <v>22.335297600000001</v>
-      </c>
-      <c r="E287" s="2">
-        <v>120.37140119999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C288" s="2" t="s">
+      <c r="D288" s="2">
+        <v>22.33765313</v>
+      </c>
+      <c r="E288" s="2">
+        <v>120.3672215</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D288" s="2">
-        <v>22.335960289999999</v>
-      </c>
-      <c r="E288" s="2">
-        <v>120.3713078</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C289" s="2" t="s">
+      <c r="D289" s="2">
+        <v>22.339540549999999</v>
+      </c>
+      <c r="E289" s="2">
+        <v>120.3630489</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D289" s="2">
-        <v>22.337524940000002</v>
-      </c>
-      <c r="E289" s="2">
-        <v>120.3673792</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C290" s="2" t="s">
+      <c r="D290" s="2">
+        <v>22.34064785</v>
+      </c>
+      <c r="E290" s="2">
+        <v>120.36621940000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D290" s="2">
-        <v>22.33765313</v>
-      </c>
-      <c r="E290" s="2">
-        <v>120.3672215</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C291" s="2" t="s">
+      <c r="D291" s="2">
+        <v>22.340709669999999</v>
+      </c>
+      <c r="E291" s="2">
+        <v>120.36558909999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D291" s="2">
-        <v>22.339540549999999</v>
-      </c>
-      <c r="E291" s="2">
-        <v>120.3630489</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="2">
+        <v>22.341308359999999</v>
+      </c>
+      <c r="E292" s="2">
+        <v>120.36526910000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D292" s="2">
-        <v>22.34064785</v>
-      </c>
-      <c r="E292" s="2">
-        <v>120.36621940000001</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2">
+        <v>22.342772159999999</v>
+      </c>
+      <c r="E293" s="2">
+        <v>120.363438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D293" s="2">
-        <v>22.340709669999999</v>
-      </c>
-      <c r="E293" s="2">
-        <v>120.36558909999999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C294" s="2" t="s">
+      <c r="D294" s="2">
+        <v>22.339775020000001</v>
+      </c>
+      <c r="E294" s="2">
+        <v>120.36939080000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D294" s="2">
-        <v>22.341308359999999</v>
-      </c>
-      <c r="E294" s="2">
-        <v>120.36526910000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C295" s="2" t="s">
+      <c r="D295" s="2">
+        <v>22.34041758</v>
+      </c>
+      <c r="E295" s="2">
+        <v>120.3696432</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D295" s="2">
-        <v>22.342772159999999</v>
-      </c>
-      <c r="E295" s="2">
-        <v>120.363438</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C296" s="2" t="s">
+      <c r="D296" s="2">
+        <v>22.340540990000001</v>
+      </c>
+      <c r="E296" s="2">
+        <v>120.371368</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D296" s="2">
-        <v>22.339775020000001</v>
-      </c>
-      <c r="E296" s="2">
-        <v>120.36939080000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C297" s="2" t="s">
+      <c r="D297" s="2">
+        <v>22.341386740000001</v>
+      </c>
+      <c r="E297" s="2">
+        <v>120.36918350000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D297" s="2">
-        <v>22.34041758</v>
-      </c>
-      <c r="E297" s="2">
-        <v>120.3696432</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C298" s="2" t="s">
+      <c r="D298" s="2">
+        <v>22.341960360000002</v>
+      </c>
+      <c r="E298" s="2">
+        <v>120.3687336</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D298" s="2">
-        <v>22.340540990000001</v>
-      </c>
-      <c r="E298" s="2">
-        <v>120.371368</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C299" s="2" t="s">
+      <c r="D299" s="2">
+        <v>22.342319589999999</v>
+      </c>
+      <c r="E299" s="2">
+        <v>120.3693887</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D299" s="2">
-        <v>22.341386740000001</v>
-      </c>
-      <c r="E299" s="2">
-        <v>120.36918350000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C300" s="2" t="s">
+      <c r="D300" s="2">
+        <v>22.34333912</v>
+      </c>
+      <c r="E300" s="2">
+        <v>120.369738</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D300" s="2">
-        <v>22.341960360000002</v>
-      </c>
-      <c r="E300" s="2">
-        <v>120.3687336</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C301" s="2" t="s">
+      <c r="D301" s="2">
+        <v>22.342407699999999</v>
+      </c>
+      <c r="E301" s="2">
+        <v>120.37282039999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D301" s="2">
-        <v>22.342319589999999</v>
-      </c>
-      <c r="E301" s="2">
-        <v>120.3693887</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C302" s="2" t="s">
+      <c r="D302" s="2">
+        <v>22.341897119999999</v>
+      </c>
+      <c r="E302" s="2">
+        <v>120.3845845</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D302" s="2">
-        <v>22.34333912</v>
-      </c>
-      <c r="E302" s="2">
-        <v>120.369738</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C303" s="2" t="s">
+      <c r="D303" s="2">
+        <v>22.345024590000001</v>
+      </c>
+      <c r="E303" s="2">
+        <v>120.3863856</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D303" s="2">
-        <v>22.342407699999999</v>
-      </c>
-      <c r="E303" s="2">
-        <v>120.37282039999999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C304" s="2" t="s">
+      <c r="D304" s="2">
+        <v>22.346127899999999</v>
+      </c>
+      <c r="E304" s="2">
+        <v>120.3883345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D304" s="2">
-        <v>22.341897119999999</v>
-      </c>
-      <c r="E304" s="2">
-        <v>120.3845845</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C305" s="2" t="s">
+      <c r="D305" s="2">
+        <v>22.34782933</v>
+      </c>
+      <c r="E305" s="2">
+        <v>120.38234509999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D305" s="2">
-        <v>22.345024590000001</v>
-      </c>
-      <c r="E305" s="2">
-        <v>120.3863856</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C306" s="2" t="s">
+      <c r="D306" s="2">
+        <v>22.347233500000002</v>
+      </c>
+      <c r="E306" s="2">
+        <v>120.3850874</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D306" s="2">
-        <v>22.346127899999999</v>
-      </c>
-      <c r="E306" s="2">
-        <v>120.3883345</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C307" s="2" t="s">
+      <c r="D307" s="2">
+        <v>22.347975859999998</v>
+      </c>
+      <c r="E307" s="2">
+        <v>120.38517299999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D307" s="2">
-        <v>22.34782933</v>
-      </c>
-      <c r="E307" s="2">
-        <v>120.38234509999999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C308" s="2" t="s">
+      <c r="D308" s="2">
+        <v>22.347990119999999</v>
+      </c>
+      <c r="E308" s="2">
+        <v>120.3852213</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D308" s="2">
-        <v>22.347233500000002</v>
-      </c>
-      <c r="E308" s="2">
-        <v>120.3850874</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C309" s="2" t="s">
+      <c r="D309" s="2">
+        <v>22.348084920000002</v>
+      </c>
+      <c r="E309" s="2">
+        <v>120.3881465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D309" s="2">
-        <v>22.347975859999998</v>
-      </c>
-      <c r="E309" s="2">
-        <v>120.38517299999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C310" s="2" t="s">
+      <c r="D310" s="2">
+        <v>22.348252049999999</v>
+      </c>
+      <c r="E310" s="2">
+        <v>120.3862701</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D310" s="2">
-        <v>22.347990119999999</v>
-      </c>
-      <c r="E310" s="2">
-        <v>120.3852213</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C311" s="2" t="s">
+      <c r="D311" s="2">
+        <v>22.35108855</v>
+      </c>
+      <c r="E311" s="2">
+        <v>120.3855772</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D311" s="2">
-        <v>22.348084920000002</v>
-      </c>
-      <c r="E311" s="2">
-        <v>120.3881465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C312" s="2" t="s">
+      <c r="D312" s="2">
+        <v>22.352376840000002</v>
+      </c>
+      <c r="E312" s="2">
+        <v>120.3828201</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D312" s="2">
-        <v>22.348252049999999</v>
-      </c>
-      <c r="E312" s="2">
-        <v>120.3862701</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C313" s="2" t="s">
+      <c r="D313" s="2">
+        <v>22.35188466</v>
+      </c>
+      <c r="E313" s="2">
+        <v>120.38339449999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D313" s="2">
-        <v>22.35108855</v>
-      </c>
-      <c r="E313" s="2">
-        <v>120.3855772</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C314" s="2" t="s">
+      <c r="D314" s="2">
+        <v>22.3519139</v>
+      </c>
+      <c r="E314" s="2">
+        <v>120.3835342</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D314" s="2">
-        <v>22.352376840000002</v>
-      </c>
-      <c r="E314" s="2">
-        <v>120.3828201</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C315" s="2" t="s">
+      <c r="D315" s="2">
+        <v>22.35263441</v>
+      </c>
+      <c r="E315" s="2">
+        <v>120.3836087</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D315" s="2">
-        <v>22.35188466</v>
-      </c>
-      <c r="E315" s="2">
-        <v>120.38339449999999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C316" s="2" t="s">
+      <c r="D316" s="2">
+        <v>22.34604581</v>
+      </c>
+      <c r="E316" s="2">
+        <v>120.36783749999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D316" s="2">
-        <v>22.3519139</v>
-      </c>
-      <c r="E316" s="2">
-        <v>120.3835342</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C317" s="2" t="s">
+      <c r="D317" s="2">
+        <v>22.346703290000001</v>
+      </c>
+      <c r="E317" s="2">
+        <v>120.3689004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D317" s="2">
-        <v>22.35263441</v>
-      </c>
-      <c r="E317" s="2">
-        <v>120.3836087</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C318" s="2" t="s">
+      <c r="D318" s="2">
+        <v>22.345454329999999</v>
+      </c>
+      <c r="E318" s="2">
+        <v>120.3728493</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D318" s="2">
-        <v>22.34604581</v>
-      </c>
-      <c r="E318" s="2">
-        <v>120.36783749999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="2">
+        <v>22.34561647</v>
+      </c>
+      <c r="E319" s="2">
+        <v>120.37493069999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D319" s="2">
-        <v>22.346703290000001</v>
-      </c>
-      <c r="E319" s="2">
-        <v>120.3689004</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C320" s="2" t="s">
+      <c r="D320" s="2">
+        <v>22.34650388</v>
+      </c>
+      <c r="E320" s="2">
+        <v>120.376614</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D320" s="2">
-        <v>22.345454329999999</v>
-      </c>
-      <c r="E320" s="2">
-        <v>120.3728493</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C321" s="2" t="s">
+      <c r="D321" s="2">
+        <v>22.346620519999998</v>
+      </c>
+      <c r="E321" s="2">
+        <v>120.3738511</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D321" s="2">
-        <v>22.34561647</v>
-      </c>
-      <c r="E321" s="2">
-        <v>120.37493069999999</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322" s="2">
+        <v>22.346858529999999</v>
+      </c>
+      <c r="E322" s="2">
+        <v>120.3734154</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D322" s="2">
-        <v>22.34650388</v>
-      </c>
-      <c r="E322" s="2">
-        <v>120.376614</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C323" s="2" t="s">
+      <c r="D323" s="2">
+        <v>22.346907730000002</v>
+      </c>
+      <c r="E323" s="2">
+        <v>120.37290489999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D323" s="2">
-        <v>22.346620519999998</v>
-      </c>
-      <c r="E323" s="2">
-        <v>120.3738511</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C324" s="2" t="s">
+      <c r="D324" s="2">
+        <v>22.34686494</v>
+      </c>
+      <c r="E324" s="2">
+        <v>120.37156760000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="D324" s="2">
-        <v>22.346858529999999</v>
-      </c>
-      <c r="E324" s="2">
-        <v>120.3734154</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C325" s="2" t="s">
+      <c r="D325" s="2">
+        <v>22.347175530000001</v>
+      </c>
+      <c r="E325" s="2">
+        <v>120.37166499999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D325" s="2">
-        <v>22.346907730000002</v>
-      </c>
-      <c r="E325" s="2">
-        <v>120.37290489999999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C326" s="2" t="s">
+      <c r="D326" s="2">
+        <v>22.347029070000001</v>
+      </c>
+      <c r="E326" s="2">
+        <v>120.3712214</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D326" s="2">
-        <v>22.34686494</v>
-      </c>
-      <c r="E326" s="2">
-        <v>120.37156760000001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C327" s="2" t="s">
+      <c r="D327" s="2">
+        <v>22.34516417</v>
+      </c>
+      <c r="E327" s="2">
+        <v>120.3661274</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D327" s="2">
-        <v>22.347175530000001</v>
-      </c>
-      <c r="E327" s="2">
-        <v>120.37166499999999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="D328" s="2">
-        <v>22.347029070000001</v>
+        <v>22.350899089999999</v>
       </c>
       <c r="E328" s="2">
-        <v>120.3712214</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D329" s="2">
-        <v>22.34516417</v>
-      </c>
-      <c r="E329" s="2">
-        <v>120.3661274</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D330" s="2">
-        <v>22.350899089999999</v>
-      </c>
-      <c r="E330" s="2">
         <v>120.3752176</v>
       </c>
     </row>
